--- a/documents/Plan/Master Plan.xlsx
+++ b/documents/Plan/Master Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="121">
   <si>
     <t>Task Name</t>
   </si>
@@ -207,30 +207,15 @@
     <t>Thu 12/13/12</t>
   </si>
   <si>
-    <t>Thu 12/20/12</t>
-  </si>
-  <si>
     <t>LinhLLL,GamNT,KHANHLTM</t>
   </si>
   <si>
-    <t xml:space="preserve">      Closing</t>
-  </si>
-  <si>
     <t>Mon 12/24/12</t>
   </si>
   <si>
-    <t xml:space="preserve">          Prepare final project presentation</t>
-  </si>
-  <si>
     <t>Wed 12/26/12</t>
   </si>
   <si>
-    <t xml:space="preserve">          Project presentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Project completed</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Schedule, Borrowing and lending management fuction</t>
   </si>
   <si>
@@ -319,6 +304,81 @@
   </si>
   <si>
     <t xml:space="preserve">       Project completed</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Predecessors</t>
+  </si>
+  <si>
+    <t>119 days?</t>
+  </si>
+  <si>
+    <t>21 days</t>
+  </si>
+  <si>
+    <t>8 days</t>
+  </si>
+  <si>
+    <t>10 days</t>
+  </si>
+  <si>
+    <t>4 days?</t>
+  </si>
+  <si>
+    <t>1 day?</t>
+  </si>
+  <si>
+    <t>80 days?</t>
+  </si>
+  <si>
+    <t>4 days</t>
+  </si>
+  <si>
+    <t>15 days?</t>
+  </si>
+  <si>
+    <t>3 days?</t>
+  </si>
+  <si>
+    <t>9 days?</t>
+  </si>
+  <si>
+    <t>KHANHLTM,LinhLLL,GamNT</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>14 days?</t>
+  </si>
+  <si>
+    <t>16 days</t>
+  </si>
+  <si>
+    <t>9 days</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>16 days?</t>
+  </si>
+  <si>
+    <t>13 days?</t>
+  </si>
+  <si>
+    <t>7 days?</t>
+  </si>
+  <si>
+    <t>8 days?</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t>1 day</t>
   </si>
 </sst>
 </file>
@@ -739,905 +799,1161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" activeCellId="1" sqref="E16 E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+      <c r="F5" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+      <c r="F7" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="6">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E15" s="6">
+        <v>11</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="6">
+        <v>12</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="2"/>
+      <c r="F20" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="D21" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="E21" s="6">
+        <v>18</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E22" s="6">
+        <v>18</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E23" s="6">
+        <v>19</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="6">
+        <v>19</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="6">
+        <v>19</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E27" s="2"/>
+      <c r="F27" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E28" s="6">
+        <v>25</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E29" s="6">
+        <v>25</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="6">
+        <v>26</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="6">
+        <v>26</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="6">
+        <v>26</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E35" s="6">
+        <v>32</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E36" s="6">
+        <v>32</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E37" s="6">
+        <v>33</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E38" s="6">
+        <v>33</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E39" s="6">
+        <v>33</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E41" s="2"/>
+      <c r="F41" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E42" s="6">
+        <v>39</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E43" s="6">
+        <v>39</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E44" s="6">
+        <v>39</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E46" s="2"/>
+      <c r="F46" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E47" s="6">
+        <v>44</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E48" s="6">
+        <v>44</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="6">
+        <v>44</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E50" s="2"/>
+      <c r="F50" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="E52" s="2"/>
+      <c r="F52" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="6">
+        <v>50</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D54" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="D55" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="D56" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="D57" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C58" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="6">
+        <v>55</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="B61" s="6" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="6">
         <v>58</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="6" t="s">
+      <c r="F62" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
